--- a/biology/Botanique/Polypodiophytina/Polypodiophytina.xlsx
+++ b/biology/Botanique/Polypodiophytina/Polypodiophytina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Monilophytes (Monilophyta), ou la classe des Polypodiopsides (Polypodiopsida) sont un clade de plantes vasculaires du groupe des Ptéridophytes. Ce clade regroupe les vraies fougères et leur alliées, à savoir les psilotes et les prêles. Le nom traditionnel vient du fait que dans une section transversale de la tige (stèle), on trouve des lobes de protoxyle rappelant un collier nacré moniliforme. Le nom de Monilophyta a été proposé pour la première fois par Kenrick et Crane en 1997 comme infra-division des Moniliformopses. Le nom de la classe est lui formé à partir du genre type Polypodium.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme le clade des Monilophyta a été convenu récemment, de nombreux caractères morphologiques du groupe n'ont pas encore été révisés, ce qui nécessite une réinterprétation à la lumière de la nouvelle phylogénie. Génétiquement, le groupe se caractérise par une insertion de 9 nucléotides dans le gène du plastide RPS4. Les caractères morphologiques dans lesquels ils diffèrent du reste des plantes vasculaires acceptées aujourd'hui sont les suivants :
 des lobes de protoxylème en forme de col (« protoxylème mésarche », le personnage qui leur a donné leur nom et qui les a fait proposer pour la première fois en tant que groupe monophylétique, Kenrick et Crane 1997) ;
@@ -549,10 +563,12 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec les Lycopodiophyta, les monilophytes forment le groupe paraphylétique des Pteridophyta, une ancienne division qui regroupe les soi-disant « fougères et affinés ». Aujourd'hui, après une analyse génétique robuste, il a été décidé de diviser les plantes vasculaires en Lycophyta et Euphyllophyta (« plantes à vraies feuilles »), et au sein des Euphyllophyta se trouvent les divisions des Monilophyta et des Lignophyta (le seul clade de Lignophyta actuellement toujours vivant est celui des Spermatophytina).
-Selon les analyses génétiques les plus récentes parmi les monilophytes vivants[4] et leur relation probable avec les monilophytes disparus[5], la phylogénie est la suivante :
+Selon les analyses génétiques les plus récentes parmi les monilophytes vivants et leur relation probable avec les monilophytes disparus, la phylogénie est la suivante :
 Des études antérieures ont donné les résultats suivants :
 </t>
         </is>
@@ -582,10 +598,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade des Monilophyta a été créé en 2007 par Philip Douglas Cantino (d) et Michael John Donoghue (d) dans une publication coécrite avec de nombreux autres botanistes[6].
-L'une des dernières classifications est celle de Christenhusz et al. 2011 (es)[7],[8],[9] (basée sur Smith et al. 2006 (es)[10], 2008)[11] qui fournit également une séquence linéaire des lycophytes et des monilophytes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Monilophyta a été créé en 2007 par Philip Douglas Cantino (d) et Michael John Donoghue (d) dans une publication coécrite avec de nombreux autres botanistes.
+L'une des dernières classifications est celle de Christenhusz et al. 2011 (es) (basée sur Smith et al. 2006 (es), 2008) qui fournit également une séquence linéaire des lycophytes et des monilophytes.
 Le système de classification de 2006 a été proposé par Smith et al. à la lumière des progrès récents de la phylogénie des monilophytes. C'est une classification phylogénétique et non morphologique, donc dans certains nœuds, il est encore difficile de dire quels sont les caractères morphologiques qui caractérisent chaque clade. Beaucoup de ses nœuds sont déjà reconnus comme phylogénétiques, principalement en ce qui concerne les eusporangiés et les nœuds basaux des leptosporangiés. Ils reconnaissent que la recherche fait encore défaut, en particulier au niveau du genre. Bien que les genres continuent de muter à cause de cela, la classification jusqu'au niveau de la famille peut déjà être considérée comme phylogénétique.
 Le classification des ordres est la suivante :
 Monilophyta (« fougères »)
@@ -637,7 +655,9 @@
           <t>Écologie et évolution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clade monilophyte comprend plus de 10 000 espèces de plantes, c'est donc le deuxième plus grand groupe de plantes vasculaires, surpassé en nombre seulement par les Angiospermes (estimés à 250 000 à 300 000 espèces vivantes). Selon les archives fossiles, les monilophytes ont subi une augmentation marquée de leur diversité et de leur abondance pendant le Carbonifère et le Jurassique, mais les archives fossiles chutent fortement au Crétacé (il y a 140 ~ 75 millions d'années). Les fossiles montrent également que les angiospermes se sont diversifiés à cette époque, en venant dominer la flore à la fin du Crétacé. Bon nombre des genres actuels de fougères ne sont apparus qu'au début du Tertiaire. En particulier, l'énorme diversité que présentent les Polypodiales, un clade qui en représente plus de 80 % des espèces de fougères actuelles, que les classifications traditionnelles avaient tendance à diviser en un grand nombre d'ordres tels que les Pteridales, Aspidiales, Aspleniales, etc. Dans les archives fossiles, la grande majorité des fougères trouvées au Tertiaire correspondent à ce clade. Les plus anciens fossiles trouvés de Polypodiales sont des sporanges et des racines datant du début du Crétacé. À quelle époque les fougères actuelles se sont-elles diversifiées ? Les archives fossiles des fougères du Crétacé sont très pauvres, il n'est donc pas possible d'y répondre. Elles peuvent s'être diversifiées à tout moment du Crétacé précoce au Tertiaire. Schneider et coll. (2004) attribuent ce manque d'information principalement à trois causes :
 La plupart des études paléobotaniques se sont concentrées sur les angiospermes, laissant de côté les fougères.
@@ -674,7 +694,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Philip D. Cantino, James A. Doyle, Sean W. Graham, Walter S. Judd, Richard G. Olmstead, Douglas E. Soltis, Pamela S. Soltis et Michael J. Donoghue, « Towards a phylogenetic nomenclature of Tracheophyta », Taxon, Utrecht, IAPT (d) et Wiley, vol. 56, no 3,‎ 1er août 2007 et août 2007, p. 822–846 (ISSN 0040-0262 et 1996-8175, DOI 10.1002/TAX.563001, JSTOR 25065865, lire en ligne)</t>
         </is>
